--- a/data/P20versusRestIncomeTrendsEAP.xlsx
+++ b/data/P20versusRestIncomeTrendsEAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24777C87-64D5-4EF1-90DC-2A249ACC09ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E22CD-DB93-4E80-9D2E-CD611D1D5563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="16" activeTab="18" xr2:uid="{B02C9FAA-2BD2-464B-B52E-D77A4BE536CE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="16" activeTab="18" xr2:uid="{5C427B87-B6DF-4680-B55B-62B4BA12101F}"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC84120-9B60-4FC4-9BAF-F4FBD29C2D19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8BE4BA-786E-4E7B-A65A-BD62651D06EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,7 +249,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3BC00D-518B-41D0-95D4-522DC8C02C92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB10EBF1-F0A2-4AA2-84CC-FAFECDC15EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -307,7 +307,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3BA8D0-BAE1-462E-AB04-DCE33DAF2437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4281EE-42DD-426C-9C7E-14E404BADA2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -365,7 +365,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EF9773-DF0C-45E3-805F-707866C3A7DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF0F5CA-DA94-46BD-B8C1-D2B6B61D26AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,7 +423,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A10FB03-E204-44A6-8CE8-7C5C59DC4FCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF4AF96-717C-4B14-BE75-9BA2EC1B3BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +481,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F080F897-9AE6-4368-AD9E-1B05642BF747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F79E8D-6751-4B84-8533-373DFB24E686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA30EC6-B36D-4E3F-80BB-7FA8EA7B325F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34350A8B-B340-4841-9999-1ACB4D835DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,7 +597,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68402C92-997D-41A7-BE91-B5A0B4FD0411}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6553E3C7-3423-4171-A5DF-AA2B4E6A02F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,7 +655,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3816063E-7A19-4103-8368-A5ED89D05B3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95456E7E-FFAF-455C-8FC4-FCF455E081EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -713,7 +713,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B7E16A-5514-493B-B9A5-028CA5A3FE0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6CD202-F39B-4679-AE7F-C97F39654AE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +771,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9E52EA-A0FB-4EE4-8D78-FE0BE9386E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD169FB4-1203-4560-A15C-5EE04DD5F7C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +829,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CC6C44-E78E-4C65-A242-BF1BF3F5AD2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA59E8E-0D79-45C0-8484-C4F2F768B1E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47983779-6568-4C7A-88BB-A359EED8F773}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEFB69C-1936-4FAC-9033-D2368535BDB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +945,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE3742A-F6FA-4359-B2E6-BA8175C20075}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0705544-B3DC-4DA9-85AA-3C4133DA9C5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1003,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CB506D-4E72-4116-828E-6AE71E5671A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF9D62C-2646-4BFB-B658-54CA22507AF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45E37DA-7AA1-440A-A3ED-3E05558B6F68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9FDE03-7412-4204-B114-47EDA63DAD43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E6B272-0CE9-4F7E-AB77-7F388C50976E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB57454-4883-4635-96F9-411CB0470AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1177,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D246E2-66E0-492B-B477-77B34FD03106}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DF202C-8D8B-4447-9479-ED97C3F2028D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB6D1C6-CEF7-4251-A9CE-12CA953035C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A362583-38CC-4E9D-AE3E-CE1FB2269CD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8ABD3C-EF55-4651-B692-C036A5EE1DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244DE32-CBA1-4ACB-9777-63A0AA1E81AD}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7267,7 +7267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72946E54-CC23-468C-B93A-6B4BBDBC2B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD0A1F-0B1C-49FC-8030-09F0331360F9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7505,7 +7505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7641F38A-8FEE-4474-A589-969AB29054D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A389DC0-341B-4041-91A7-482ADAA209D1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7743,7 +7743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA1959-00FF-4E58-89FC-5B38E558F060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB8EDF2-067E-4EA3-9DF2-361DE5ECE675}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7981,7 +7981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6657BFA-9A18-4129-969A-DB1B7FD89DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F40288-B5D3-4A1A-8222-BA1C293609F8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8219,7 +8219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FA08FA-CDB0-4B7C-A9F5-EE622683DEFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BD320C-A54B-4629-AC8C-DB506A409D3A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8457,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A32424-BFF4-498E-9A9F-9E10B3643928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA5672-F518-4CB9-857C-F4D1FDBA1AD8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8695,7 +8695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A60E06-A2F2-4EEC-8DCB-DD14795CC5C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D74813-D8BF-4EF7-8E49-C3CCF11274F6}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8919,7 +8919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A217D-56F4-4549-8DDA-5CEE22C93A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CD80F6-0F13-452B-879E-02E915BFDF19}">
   <dimension ref="I1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9129,7 +9129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB182A10-396A-4B3A-8A51-4B6373D3FE5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4545B9B-D8B7-4929-A1FE-5080A69591AA}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9325,7 +9325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAE3755-28AF-4355-B28D-1F0860CEE890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711F87B1-FEB1-48DD-BB50-7BDE790D9384}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9521,7 +9521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0ADEBC-564A-4458-9EB0-58DE15745E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B6C066-D3F9-4B2F-8C21-CC69AE864EA3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9759,7 +9759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04227B0-3DB6-47EE-BAD0-5CDB1742CA2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2079C2-6CF6-446B-8BA2-9D6E2D8BB17D}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15457,7 +15457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70884B0-535A-4E36-BE6F-B0BD028725A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F596487B-7AA7-4D6C-8600-6F2958BB84E0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15695,7 +15695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71706374-4CBB-4CEE-84D0-26F8642499A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAFAA9C-AFF4-43B8-B237-24BDDB9F7A0D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15933,7 +15933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324115C0-7B86-4632-9415-014C3D99B68D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498E579B-6CF6-462D-B52A-F4421CF31878}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16171,7 +16171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A9D60F-917D-4EF8-A337-CC68A6E542E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4EE6C7-8DF4-4864-A643-35C1695B44A2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16409,7 +16409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3DE228-1E23-410C-90A0-BC84BC4E695C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22236691-F3B3-4191-BAD8-16466A9621F8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16647,7 +16647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB50B1-8022-4740-ACBF-49DB7145D2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48642C1F-5B9D-4CA9-B863-2FBA9CFB0465}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/P20versusRestIncomeTrendsEAP.xlsx
+++ b/data/P20versusRestIncomeTrendsEAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98E22CD-DB93-4E80-9D2E-CD611D1D5563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D10394-0193-4E8A-81AC-3AB0AB92FB40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="16" activeTab="18" xr2:uid="{5C427B87-B6DF-4680-B55B-62B4BA12101F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="16" activeTab="18" xr2:uid="{10B7A0BD-8B0C-4665-B062-C8941B82CDAA}"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8BE4BA-786E-4E7B-A65A-BD62651D06EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027E198A-8702-462B-A8AC-E72F60AB8206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,7 +249,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB10EBF1-F0A2-4AA2-84CC-FAFECDC15EE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14561F08-CCC6-401C-8FC7-621853E78B86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -307,7 +307,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4281EE-42DD-426C-9C7E-14E404BADA2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E99B9E4-8E96-48BD-AE0F-D92C27044A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -365,7 +365,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF0F5CA-DA94-46BD-B8C1-D2B6B61D26AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D55C15-9815-416E-B592-C18B61B0591C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,7 +423,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF4AF96-717C-4B14-BE75-9BA2EC1B3BBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0AB63A-9EB1-45D2-9053-F72ACBD244E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +481,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F79E8D-6751-4B84-8533-373DFB24E686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D76D696-BEAA-45B2-B19B-1DD313548B91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34350A8B-B340-4841-9999-1ACB4D835DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616801D6-EFAC-43BC-BA67-DAB5A70FD0EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,7 +597,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6553E3C7-3423-4171-A5DF-AA2B4E6A02F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2403BE1E-EC50-46CD-BEF4-7900D70C946C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,7 +655,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95456E7E-FFAF-455C-8FC4-FCF455E081EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8647260-04A8-4B99-926D-3617C6B970FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -713,7 +713,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6CD202-F39B-4679-AE7F-C97F39654AE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06AB244E-E584-4913-97C6-2CA756862293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +771,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD169FB4-1203-4560-A15C-5EE04DD5F7C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE6D080-B190-4C92-9E89-2406FC572E0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +829,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA59E8E-0D79-45C0-8484-C4F2F768B1E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA34FB-BD35-4B0F-86AF-4601011E09EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEFB69C-1936-4FAC-9033-D2368535BDB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82507E46-9740-497B-87AA-D9469D80C3E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +945,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0705544-B3DC-4DA9-85AA-3C4133DA9C5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB75D331-6920-48CD-883C-B66443660EAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1003,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF9D62C-2646-4BFB-B658-54CA22507AF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A30D239-D714-4184-BD09-3FA7CB479682}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9FDE03-7412-4204-B114-47EDA63DAD43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26E7730-F6C6-4DA4-89D7-22C448FFFC5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB57454-4883-4635-96F9-411CB0470AE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53D72D8-D135-4FBA-A9D1-9298B8B83D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1177,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DF202C-8D8B-4447-9479-ED97C3F2028D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D046E1-4DFF-464B-AAE0-AB5434A29E88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A362583-38CC-4E9D-AE3E-CE1FB2269CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C32F5C5-FAB2-45F7-918E-DFAF5B867666}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244DE32-CBA1-4ACB-9777-63A0AA1E81AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F943D4-1BF0-455A-964F-6AF5092D0626}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7267,7 +7267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD0A1F-0B1C-49FC-8030-09F0331360F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E7D6F-EE16-466C-A485-E5FAF014430B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7505,7 +7505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A389DC0-341B-4041-91A7-482ADAA209D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4204B105-4F4C-4FB6-BCC0-B038EF643011}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7743,7 +7743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB8EDF2-067E-4EA3-9DF2-361DE5ECE675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91914B9-F402-4318-9A50-A82256DEC87D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7981,7 +7981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F40288-B5D3-4A1A-8222-BA1C293609F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B46487C-0BC4-42D2-9BF8-C91B81E2B781}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8219,7 +8219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BD320C-A54B-4629-AC8C-DB506A409D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE217490-74C8-462B-8CD0-8787CE957F46}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8457,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA5672-F518-4CB9-857C-F4D1FDBA1AD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB873F5D-335D-4FD2-97FC-7313711A353E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8695,7 +8695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D74813-D8BF-4EF7-8E49-C3CCF11274F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8167C06A-5FAA-497F-88FA-5D6BB313A1C2}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8919,7 +8919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CD80F6-0F13-452B-879E-02E915BFDF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D40235E-87E2-41FA-AD7B-D71EB3275EE2}">
   <dimension ref="I1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9129,7 +9129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4545B9B-D8B7-4929-A1FE-5080A69591AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205350C0-9BF2-48AB-A82C-CDD5375605CA}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9325,7 +9325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711F87B1-FEB1-48DD-BB50-7BDE790D9384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527A2014-A92B-46F0-96AA-012A7CB42ABB}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9521,7 +9521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B6C066-D3F9-4B2F-8C21-CC69AE864EA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D900DE5-A478-4EC8-B445-81233AECCA2F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9759,7 +9759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2079C2-6CF6-446B-8BA2-9D6E2D8BB17D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B70813-9521-4DFC-ADF8-73ACF0E1F2E9}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15457,7 +15457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F596487B-7AA7-4D6C-8600-6F2958BB84E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1BB678-3065-4113-8A62-E981B590CA0A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15695,7 +15695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAFAA9C-AFF4-43B8-B237-24BDDB9F7A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6426C62E-163F-4D93-890D-E153C3380CED}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15933,7 +15933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498E579B-6CF6-462D-B52A-F4421CF31878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1601FDBE-5D52-44AF-9170-ACDD30ECAC72}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16171,7 +16171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4EE6C7-8DF4-4864-A643-35C1695B44A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F090FFC-58F3-47B2-80DC-41547EFA2002}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16409,7 +16409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22236691-F3B3-4191-BAD8-16466A9621F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A459B3-7209-489A-AD05-BAC99F8C9BC2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16647,7 +16647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48642C1F-5B9D-4CA9-B863-2FBA9CFB0465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11650283-B31C-491F-8C5F-875693D57490}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
